--- a/indicators/StarcBands/StarcBands.Calc.xlsx
+++ b/indicators/StarcBands/StarcBands.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6815DAD0-2561-4A24-84DC-B037B3F46565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA369E8-8CFB-4A40-BD92-86B506705A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="M503" sqref="M503"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
